--- a/forms.xlsx
+++ b/forms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\jeec\schedule_otimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C414E54-EFA9-466E-89CD-60EF52B3EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2797A7-629E-433A-BE77-C9DA8A972E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas do Formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -43,52 +43,58 @@
     <t>ruipcdaniel@gmail.com</t>
   </si>
   <si>
-    <t>Dia 1</t>
-  </si>
-  <si>
-    <t>Dia 2</t>
-  </si>
-  <si>
-    <t>Dia 3</t>
-  </si>
-  <si>
-    <t>Dia 4</t>
-  </si>
-  <si>
-    <t>Dia 5</t>
-  </si>
-  <si>
-    <t>Dia 6</t>
-  </si>
-  <si>
-    <t>Dia 7</t>
-  </si>
-  <si>
-    <t>Dia 8</t>
-  </si>
-  <si>
-    <t>Dia 9</t>
-  </si>
-  <si>
     <t>29/09/2023  153613</t>
   </si>
   <si>
-    <t>_9h_10h, _13h_14h, _14h_15h</t>
-  </si>
-  <si>
-    <t>_10h_11h, _14h_15h, _17h_18h</t>
-  </si>
-  <si>
-    <t>_10h_11h, _12h_13h, _15h_16h</t>
-  </si>
-  <si>
-    <t>_11h_12h</t>
-  </si>
-  <si>
-    <t>_10h_11h</t>
-  </si>
-  <si>
-    <t>_9h_10h</t>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 1]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 2]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 3]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 4]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 5]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 6]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 7]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 8]</t>
+  </si>
+  <si>
+    <t>Assinala de acordo com a tua disponibilidade. (preenche com a tua disponibilidade máxima, e.g., when2meet) [Dia 9]</t>
+  </si>
+  <si>
+    <t>8h-9h, 9h-10h, 13h-14h, 14h-15h, 16h-17h</t>
+  </si>
+  <si>
+    <t>9h-10h, 15h-16h, 16h-17h</t>
+  </si>
+  <si>
+    <t>9h-10h, 13h-14h, 16h-17h</t>
+  </si>
+  <si>
+    <t>14h-15h</t>
+  </si>
+  <si>
+    <t>10h-11h</t>
+  </si>
+  <si>
+    <t>11h-12h, 14h-15h</t>
+  </si>
+  <si>
+    <t>10h-11h, 16h-17h</t>
+  </si>
+  <si>
+    <t>8h-9h, 9h-10h, 14h-15h</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,6 +122,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,14 +146,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +397,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -371,7 +405,7 @@
     <col min="1" max="20" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="93" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,38 +418,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -426,29 +460,32 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
